--- a/xlsx2json/test/s_equip.xlsx
+++ b/xlsx2json/test/s_equip.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqiangjun/Desktop/xlsx2json-master/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqiangjun/Desktop/xlsx2json/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1319,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
